--- a/data/csv/mock_students.xlsx
+++ b/data/csv/mock_students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenne\Google Drive\Data Vault\GitHub\Educative-Advanced-Pandas\data\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58B08EC-6324-4F7B-82C0-89952870DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6959803E-2CC3-4723-B4FE-74141C5A5239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7371" yWindow="0" windowWidth="22115" windowHeight="8426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>first_name</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>has_scholarship</t>
+  </si>
+  <si>
+    <t>gpa</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -458,7 +461,7 @@
     <col min="7" max="7" width="13.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -480,8 +483,11 @@
       <c r="G1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -503,8 +509,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -526,8 +535,11 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -549,8 +561,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -572,8 +587,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -595,8 +613,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -618,8 +639,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -641,8 +665,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -664,8 +691,11 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -687,8 +717,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -709,6 +742,9 @@
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="H11">
+        <v>3.77</v>
       </c>
     </row>
   </sheetData>
